--- a/data/input_data_US_nash.xlsx
+++ b/data/input_data_US_nash.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4220C29-BCE3-4005-83E6-66900AC502F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504FE7FB-BE3B-4C62-9EB4-22EE102834D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="839" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -827,6 +827,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -845,8 +847,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,13 +1216,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1281,8 +1281,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1357,8 +1357,8 @@
         <v>2203.404</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1431,8 +1431,8 @@
         <v>2425.596</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1491,8 +1491,8 @@
         <v>4629</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1561,81 +1561,81 @@
         <v>3.1324260099373516E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C6" s="43"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C7" s="43"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C8" s="43"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C9" s="43"/>
       <c r="S9" s="43"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C10" s="43"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C11" s="43"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C12" s="43"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C13" s="43"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C14" s="43"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C15" s="43"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C16" s="43"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="43"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="43"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="43"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="43"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="43"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="43"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="43"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="43"/>
     </row>
   </sheetData>
@@ -1655,9 +1655,9 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1716,8 +1716,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -1775,8 +1775,8 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
       <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
@@ -1832,8 +1832,8 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
@@ -1889,8 +1889,8 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
       <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
@@ -1946,8 +1946,8 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
       <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
@@ -2003,8 +2003,8 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
       <c r="B7" s="33" t="s">
         <v>5</v>
       </c>
@@ -2060,8 +2060,8 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="58"/>
       <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
@@ -2117,8 +2117,8 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="56"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
@@ -2174,8 +2174,8 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="58"/>
       <c r="B10" s="33" t="s">
         <v>8</v>
       </c>
@@ -2231,8 +2231,8 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
       <c r="B11" s="33" t="s">
         <v>9</v>
       </c>
@@ -2288,8 +2288,8 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="58"/>
       <c r="B12" s="33" t="s">
         <v>10</v>
       </c>
@@ -2345,8 +2345,8 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
       <c r="B13" s="33" t="s">
         <v>11</v>
       </c>
@@ -2402,8 +2402,8 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
       <c r="B14" s="33" t="s">
         <v>12</v>
       </c>
@@ -2459,8 +2459,8 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
       <c r="B15" s="33" t="s">
         <v>13</v>
       </c>
@@ -2516,8 +2516,8 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="58"/>
       <c r="B16" s="33" t="s">
         <v>14</v>
       </c>
@@ -2573,8 +2573,8 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="56"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
       <c r="B17" s="33" t="s">
         <v>15</v>
       </c>
@@ -2646,9 +2646,9 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>17</v>
       </c>
@@ -2707,8 +2707,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -2766,8 +2766,8 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
       <c r="B3" s="50" t="s">
         <v>1</v>
       </c>
@@ -2823,8 +2823,8 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
       <c r="B4" s="50" t="s">
         <v>2</v>
       </c>
@@ -2880,8 +2880,8 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
       <c r="B5" s="50" t="s">
         <v>3</v>
       </c>
@@ -2937,8 +2937,8 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
       <c r="B6" s="50" t="s">
         <v>4</v>
       </c>
@@ -2994,8 +2994,8 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
       <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
@@ -3051,8 +3051,8 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="58"/>
       <c r="B8" s="50" t="s">
         <v>6</v>
       </c>
@@ -3108,8 +3108,8 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="56"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
       <c r="B9" s="50" t="s">
         <v>7</v>
       </c>
@@ -3165,8 +3165,8 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="58"/>
       <c r="B10" s="50" t="s">
         <v>8</v>
       </c>
@@ -3222,8 +3222,8 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
       <c r="B11" s="50" t="s">
         <v>9</v>
       </c>
@@ -3279,8 +3279,8 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="58"/>
       <c r="B12" s="50" t="s">
         <v>10</v>
       </c>
@@ -3336,8 +3336,8 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
       <c r="B13" s="50" t="s">
         <v>11</v>
       </c>
@@ -3393,8 +3393,8 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
       <c r="B14" s="50" t="s">
         <v>12</v>
       </c>
@@ -3450,8 +3450,8 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
       <c r="B15" s="50" t="s">
         <v>13</v>
       </c>
@@ -3507,8 +3507,8 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="58"/>
       <c r="B16" s="50" t="s">
         <v>14</v>
       </c>
@@ -3564,8 +3564,8 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="56"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
       <c r="B17" s="50" t="s">
         <v>15</v>
       </c>
@@ -3637,9 +3637,9 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>17</v>
       </c>
@@ -3698,8 +3698,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -3757,8 +3757,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
       <c r="B3" s="50" t="s">
         <v>1</v>
       </c>
@@ -3814,8 +3814,8 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
       <c r="B4" s="50" t="s">
         <v>2</v>
       </c>
@@ -3871,8 +3871,8 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
       <c r="B5" s="50" t="s">
         <v>3</v>
       </c>
@@ -3928,8 +3928,8 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
       <c r="B6" s="50" t="s">
         <v>4</v>
       </c>
@@ -3985,8 +3985,8 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
       <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
@@ -4042,8 +4042,8 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="58"/>
       <c r="B8" s="50" t="s">
         <v>6</v>
       </c>
@@ -4099,8 +4099,8 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="56"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
       <c r="B9" s="50" t="s">
         <v>7</v>
       </c>
@@ -4156,8 +4156,8 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="58"/>
       <c r="B10" s="50" t="s">
         <v>8</v>
       </c>
@@ -4213,8 +4213,8 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
       <c r="B11" s="50" t="s">
         <v>9</v>
       </c>
@@ -4270,8 +4270,8 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="58"/>
       <c r="B12" s="50" t="s">
         <v>10</v>
       </c>
@@ -4327,8 +4327,8 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
       <c r="B13" s="50" t="s">
         <v>11</v>
       </c>
@@ -4384,8 +4384,8 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
       <c r="B14" s="50" t="s">
         <v>12</v>
       </c>
@@ -4441,8 +4441,8 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
       <c r="B15" s="50" t="s">
         <v>13</v>
       </c>
@@ -4498,8 +4498,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="58"/>
       <c r="B16" s="50" t="s">
         <v>14</v>
       </c>
@@ -4555,8 +4555,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="56"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
       <c r="B17" s="50" t="s">
         <v>15</v>
       </c>
@@ -4628,12 +4628,12 @@
       <selection activeCell="J2" sqref="J2:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>7.2352740892066736</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="44"/>
     </row>
   </sheetData>
@@ -4695,21 +4695,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>85</v>
       </c>
@@ -4787,20 +4787,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>85</v>
       </c>
@@ -4877,21 +4877,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="5"/>
-    <col min="9" max="9" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="5"/>
+    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>85</v>
       </c>
@@ -4968,20 +4968,20 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>85</v>
       </c>
@@ -5058,20 +5058,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" customWidth="1"/>
-    <col min="9" max="9" width="19.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
@@ -5100,8 +5100,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="46" t="s">
@@ -5125,8 +5125,8 @@
       <c r="H2" s="20"/>
       <c r="I2" s="47"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="58"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
       <c r="B3" s="51" t="s">
         <v>86</v>
       </c>
@@ -5157,28 +5157,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
@@ -5219,8 +5219,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -5257,8 +5257,8 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="60"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
       <c r="B3" s="35" t="s">
         <v>69</v>
       </c>
@@ -5293,8 +5293,8 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="60"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="62"/>
       <c r="B4" s="35" t="s">
         <v>70</v>
       </c>
@@ -5329,8 +5329,8 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="60"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
       <c r="B5" s="35" t="s">
         <v>71</v>
       </c>
@@ -5365,8 +5365,8 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="60"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
       <c r="B6" s="35" t="s">
         <v>72</v>
       </c>
@@ -5401,8 +5401,8 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="60"/>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
       <c r="B7" s="35" t="s">
         <v>73</v>
       </c>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
-      <c r="L7" s="62">
+      <c r="L7" s="56">
         <v>44004</v>
       </c>
       <c r="M7" s="54">
@@ -5437,8 +5437,8 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63"/>
       <c r="B8" s="27" t="s">
         <v>96</v>
       </c>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="63">
+      <c r="L8" s="57">
         <v>44015</v>
       </c>
       <c r="M8" s="55"/>
@@ -5484,20 +5484,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>

--- a/data/input_data_US_nash.xlsx
+++ b/data/input_data_US_nash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4220C29-BCE3-4005-83E6-66900AC502F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B84DF5-44DE-4D09-8160-CDE2DE7FF3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="839" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -827,6 +827,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -845,8 +847,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1358,7 +1358,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1432,7 +1432,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="58" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1492,7 +1492,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1717,7 +1717,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -1776,7 +1776,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
@@ -1833,7 +1833,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
@@ -1890,7 +1890,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
@@ -1947,7 +1947,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
@@ -2004,7 +2004,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="33" t="s">
         <v>5</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
@@ -2118,7 +2118,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="56"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
@@ -2175,7 +2175,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="33" t="s">
         <v>8</v>
       </c>
@@ -2232,7 +2232,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="33" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2289,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="33" t="s">
         <v>10</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="33" t="s">
         <v>11</v>
       </c>
@@ -2403,7 +2403,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="33" t="s">
         <v>12</v>
       </c>
@@ -2460,7 +2460,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="33" t="s">
         <v>13</v>
       </c>
@@ -2517,7 +2517,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="33" t="s">
         <v>14</v>
       </c>
@@ -2574,7 +2574,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="56"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="33" t="s">
         <v>15</v>
       </c>
@@ -2708,7 +2708,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -2767,7 +2767,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="50" t="s">
         <v>1</v>
       </c>
@@ -2824,7 +2824,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="50" t="s">
         <v>2</v>
       </c>
@@ -2881,7 +2881,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="50" t="s">
         <v>3</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="50" t="s">
         <v>4</v>
       </c>
@@ -2995,7 +2995,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
@@ -3052,7 +3052,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="50" t="s">
         <v>6</v>
       </c>
@@ -3109,7 +3109,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="56"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="50" t="s">
         <v>7</v>
       </c>
@@ -3166,7 +3166,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="50" t="s">
         <v>8</v>
       </c>
@@ -3223,7 +3223,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="50" t="s">
         <v>9</v>
       </c>
@@ -3280,7 +3280,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="50" t="s">
         <v>10</v>
       </c>
@@ -3337,7 +3337,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="50" t="s">
         <v>11</v>
       </c>
@@ -3394,7 +3394,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="50" t="s">
         <v>12</v>
       </c>
@@ -3451,7 +3451,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="50" t="s">
         <v>13</v>
       </c>
@@ -3508,7 +3508,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="50" t="s">
         <v>14</v>
       </c>
@@ -3565,7 +3565,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="56"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="50" t="s">
         <v>15</v>
       </c>
@@ -3699,7 +3699,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -3758,7 +3758,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="50" t="s">
         <v>1</v>
       </c>
@@ -3815,7 +3815,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="50" t="s">
         <v>2</v>
       </c>
@@ -3872,7 +3872,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="50" t="s">
         <v>3</v>
       </c>
@@ -3929,7 +3929,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="50" t="s">
         <v>4</v>
       </c>
@@ -3986,7 +3986,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
@@ -4043,7 +4043,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="50" t="s">
         <v>6</v>
       </c>
@@ -4100,7 +4100,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="56"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="50" t="s">
         <v>7</v>
       </c>
@@ -4157,7 +4157,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="50" t="s">
         <v>8</v>
       </c>
@@ -4214,7 +4214,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="50" t="s">
         <v>9</v>
       </c>
@@ -4271,7 +4271,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="50" t="s">
         <v>10</v>
       </c>
@@ -4328,7 +4328,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="50" t="s">
         <v>11</v>
       </c>
@@ -4385,7 +4385,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="50" t="s">
         <v>12</v>
       </c>
@@ -4442,7 +4442,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="50" t="s">
         <v>13</v>
       </c>
@@ -4499,7 +4499,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="50" t="s">
         <v>14</v>
       </c>
@@ -4556,7 +4556,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="56"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="50" t="s">
         <v>15</v>
       </c>
@@ -5054,8 +5054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642FC35E-47F5-4C37-873D-2E19575CE65D}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5101,7 +5101,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="46" t="s">
@@ -5126,7 +5126,7 @@
       <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="58"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="51" t="s">
         <v>86</v>
       </c>
@@ -5158,7 +5158,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5220,7 +5220,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -5230,13 +5230,13 @@
         <v>94</v>
       </c>
       <c r="D2" s="32">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="E2" s="19">
         <v>1</v>
       </c>
       <c r="F2" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="19">
         <v>1</v>
@@ -5258,7 +5258,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="60"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="35" t="s">
         <v>69</v>
       </c>
@@ -5266,13 +5266,13 @@
         <v>89</v>
       </c>
       <c r="D3" s="37">
-        <v>0.78500000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="E3" s="36">
         <v>1</v>
       </c>
       <c r="F3" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="36">
         <v>1</v>
@@ -5294,7 +5294,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="60"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="35" t="s">
         <v>70</v>
       </c>
@@ -5302,13 +5302,13 @@
         <v>90</v>
       </c>
       <c r="D4" s="37">
-        <v>0.68500000000000005</v>
+        <v>0.19</v>
       </c>
       <c r="E4" s="39">
         <v>1</v>
       </c>
       <c r="F4" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="36">
         <v>1</v>
@@ -5330,7 +5330,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="60"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="35" t="s">
         <v>71</v>
       </c>
@@ -5338,13 +5338,13 @@
         <v>92</v>
       </c>
       <c r="D5" s="37">
-        <v>0.75</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="E5" s="36">
         <v>1</v>
       </c>
       <c r="F5" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="36">
         <v>1</v>
@@ -5366,7 +5366,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="60"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="35" t="s">
         <v>72</v>
       </c>
@@ -5374,13 +5374,13 @@
         <v>91</v>
       </c>
       <c r="D6" s="37">
-        <v>0.89</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="E6" s="36">
         <v>1</v>
       </c>
       <c r="F6" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="36">
         <v>1</v>
@@ -5402,7 +5402,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="60"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="35" t="s">
         <v>73</v>
       </c>
@@ -5410,13 +5410,13 @@
         <v>93</v>
       </c>
       <c r="D7" s="38">
-        <v>0.99</v>
+        <v>0.81</v>
       </c>
       <c r="E7" s="36">
         <v>1</v>
       </c>
       <c r="F7" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="36">
         <v>1</v>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
-      <c r="L7" s="62">
+      <c r="L7" s="56">
         <v>44004</v>
       </c>
       <c r="M7" s="54">
@@ -5438,7 +5438,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="27" t="s">
         <v>96</v>
       </c>
@@ -5446,13 +5446,13 @@
         <v>97</v>
       </c>
       <c r="D8" s="40">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="E8" s="21">
         <v>1</v>
       </c>
       <c r="F8" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="63">
+      <c r="L8" s="57">
         <v>44015</v>
       </c>
       <c r="M8" s="55"/>
@@ -5484,8 +5484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5601,10 +5601,10 @@
         <v>20</v>
       </c>
       <c r="K2">
-        <v>0.09</v>
+        <v>0.1066</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="M2">
         <v>0.1</v>
@@ -5619,13 +5619,13 @@
         <v>173</v>
       </c>
       <c r="Q2">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="R2">
         <v>1000</v>
       </c>
       <c r="S2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="T2">
         <v>1</v>

--- a/data/input_data_US_nash.xlsx
+++ b/data/input_data_US_nash.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B84DF5-44DE-4D09-8160-CDE2DE7FF3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4EA006-95C7-40BC-9C81-52A8F0D5F83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="839" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="102">
   <si>
     <t>0-4</t>
   </si>
@@ -380,6 +380,18 @@
   </si>
   <si>
     <t>Retail, commerical, entertainment open to 75%, restaurants to 50%, gatherings limited to 25</t>
+  </si>
+  <si>
+    <t>lockdown5</t>
+  </si>
+  <si>
+    <t>Hypothetical restrictions</t>
+  </si>
+  <si>
+    <t>lockdown6</t>
+  </si>
+  <si>
+    <t>Hypothetical restrictions (relaxed)</t>
   </si>
 </sst>
 </file>
@@ -724,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -836,9 +848,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5155,10 +5164,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5258,7 +5267,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="35" t="s">
         <v>69</v>
       </c>
@@ -5289,12 +5298,12 @@
         <v>43911</v>
       </c>
       <c r="M3" s="54">
-        <f t="shared" ref="M3:M7" si="0">L4</f>
+        <f t="shared" ref="M3:M6" si="0">L4</f>
         <v>43913</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="35" t="s">
         <v>70</v>
       </c>
@@ -5330,7 +5339,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="35" t="s">
         <v>71</v>
       </c>
@@ -5366,7 +5375,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="35" t="s">
         <v>72</v>
       </c>
@@ -5402,7 +5411,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="35" t="s">
         <v>73</v>
       </c>
@@ -5433,46 +5442,108 @@
         <v>44004</v>
       </c>
       <c r="M7" s="54">
-        <f t="shared" si="0"/>
+        <f>L8</f>
         <v>44015</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="38">
         <v>0.65</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="36">
         <v>1</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="36">
         <v>1</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="36">
         <v>1</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="36">
         <v>1</v>
       </c>
-      <c r="I8" s="21">
-        <v>0</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="57">
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="56">
         <v>44015</v>
       </c>
-      <c r="M8" s="55"/>
+      <c r="M8" s="54"/>
+    </row>
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
+      <c r="B9" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="F9" s="36">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36">
+        <v>1</v>
+      </c>
+      <c r="H9" s="36">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="62"/>
+      <c r="B10" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="40">
+        <v>0.65</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="21">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A2:A10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/input_data_US_nash.xlsx
+++ b/data/input_data_US_nash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4EA006-95C7-40BC-9C81-52A8F0D5F83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AD0F7D-023C-4291-9F31-7EE71C691EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5167,7 +5167,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/input_data_US_nash.xlsx
+++ b/data/input_data_US_nash.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AD0F7D-023C-4291-9F31-7EE71C691EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F5FADD-9B27-42B2-8458-B513FA360A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5167,7 +5167,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5275,7 +5275,7 @@
         <v>89</v>
       </c>
       <c r="D3" s="37">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="36">
         <v>1</v>
@@ -5311,7 +5311,7 @@
         <v>90</v>
       </c>
       <c r="D4" s="37">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="E4" s="39">
         <v>1</v>
@@ -5347,7 +5347,7 @@
         <v>92</v>
       </c>
       <c r="D5" s="37">
-        <v>0.79500000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="36">
         <v>1</v>
@@ -5383,7 +5383,7 @@
         <v>91</v>
       </c>
       <c r="D6" s="37">
-        <v>0.80500000000000005</v>
+        <v>0.71</v>
       </c>
       <c r="E6" s="36">
         <v>1</v>
@@ -5419,7 +5419,7 @@
         <v>93</v>
       </c>
       <c r="D7" s="38">
-        <v>0.81</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="E7" s="36">
         <v>1</v>
@@ -5455,7 +5455,7 @@
         <v>97</v>
       </c>
       <c r="D8" s="38">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="E8" s="36">
         <v>1</v>
@@ -5556,7 +5556,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5681,7 +5681,7 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -5690,7 +5690,7 @@
         <v>173</v>
       </c>
       <c r="Q2">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="R2">
         <v>1000</v>
